--- a/Visuals/Tables/Supplementary Table 2.xlsx
+++ b/Visuals/Tables/Supplementary Table 2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>KS Statistic</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p-value</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,13 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5002615164500512</v>
+        <v>0.4536790578878014</v>
       </c>
       <c r="C2" t="n">
-        <v>1.00854</v>
+        <v>1.0086</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004940000000000055</v>
+        <v>0.006360000000000032</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03487180888169839</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.30137994126735</v>
+        <v>15.78029461131034</v>
       </c>
       <c r="C3" t="n">
-        <v>1.246799895638065</v>
+        <v>1.217369730421838</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1327991959798994</v>
+        <v>0.129969</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-34.76887350175576</v>
+        <v>-19.1220916628652</v>
       </c>
       <c r="C4" t="n">
-        <v>45.43864</v>
+        <v>64.86818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3144997989949748</v>
+        <v>0.1834885000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-20.65123654768827</v>
+        <v>-5.171459538912004</v>
       </c>
       <c r="C5" t="n">
-        <v>67.69094</v>
+        <v>91.60469999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1825210050251256</v>
+        <v>0.06283219999999998</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
